--- a/04.Readings/investments_lineup_401k_HSA.xlsx
+++ b/04.Readings/investments_lineup_401k_HSA.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longh\Desktop\OpenSourceAP_Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zlhte\OneDrive\Desktop\OpenSourceAssetPricing\04.Readings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D447590-8BC0-4FBA-9368-35A26F77899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FB9ED2-4075-4E8D-8029-93F794F5244F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6635DEE9-9067-4B45-AFE7-CB02D223CB1B}"/>
+    <workbookView xWindow="127" yWindow="0" windowWidth="14161" windowHeight="11363" activeTab="1" xr2:uid="{6635DEE9-9067-4B45-AFE7-CB02D223CB1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="401k" sheetId="1" r:id="rId1"/>
+    <sheet name="Retail" sheetId="7" r:id="rId2"/>
+    <sheet name="SP500" sheetId="2" r:id="rId3"/>
+    <sheet name="MEGA" sheetId="3" r:id="rId4"/>
+    <sheet name="LARGE" sheetId="4" r:id="rId5"/>
+    <sheet name="Mid" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'401k'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
   <si>
     <t>Source</t>
   </si>
@@ -274,6 +279,192 @@
   </si>
   <si>
     <t>S&amp;P Completion TR</t>
+  </si>
+  <si>
+    <t>SP500</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t>VOO</t>
+  </si>
+  <si>
+    <t>Fidelity</t>
+  </si>
+  <si>
+    <t>FXAIX</t>
+  </si>
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
+    <t>MGV</t>
+  </si>
+  <si>
+    <t>MGK</t>
+  </si>
+  <si>
+    <t>WINNER</t>
+  </si>
+  <si>
+    <t>TIE</t>
+  </si>
+  <si>
+    <t>VUG and VTV</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>Sector-Energy</t>
+  </si>
+  <si>
+    <t>Sector-Communication</t>
+  </si>
+  <si>
+    <t>XLC</t>
+  </si>
+  <si>
+    <t>Sector-Consumer Staples</t>
+  </si>
+  <si>
+    <t>FSTA</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>Sector-Consumer Discretionary</t>
+  </si>
+  <si>
+    <t>FDIS</t>
+  </si>
+  <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <t>Sector-Financial</t>
+  </si>
+  <si>
+    <t>&gt;&gt; XLY</t>
+  </si>
+  <si>
+    <t>&gt;&gt; FNCL</t>
+  </si>
+  <si>
+    <t>&gt;&gt; XLP</t>
+  </si>
+  <si>
+    <t>&gt;&gt; FCOM</t>
+  </si>
+  <si>
+    <t>Sector-Industrials</t>
+  </si>
+  <si>
+    <t>Sector-Health Care</t>
+  </si>
+  <si>
+    <t>XLV</t>
+  </si>
+  <si>
+    <t>&gt;&gt;FHLC</t>
+  </si>
+  <si>
+    <t>Sector-I.T.</t>
+  </si>
+  <si>
+    <t>XLK</t>
+  </si>
+  <si>
+    <t>&gt;&gt;FTEC</t>
+  </si>
+  <si>
+    <t>Sector-Material</t>
+  </si>
+  <si>
+    <t>XLB</t>
+  </si>
+  <si>
+    <t>Sector-Real Estate</t>
+  </si>
+  <si>
+    <t>XLRE</t>
+  </si>
+  <si>
+    <t>&gt;&gt; FREL</t>
+  </si>
+  <si>
+    <t>&gt;&gt; FMAT</t>
+  </si>
+  <si>
+    <t>Sector-Utility</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>&gt;&gt; FUTY</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>State Street</t>
+  </si>
+  <si>
+    <t>FIDU</t>
+  </si>
+  <si>
+    <t>~ XLI</t>
+  </si>
+  <si>
+    <t>&gt; FENY</t>
+  </si>
+  <si>
+    <t>Size &amp; Style - MV</t>
+  </si>
+  <si>
+    <t>Size &amp; Style - MG</t>
+  </si>
+  <si>
+    <t>Size &amp; Style - LG</t>
+  </si>
+  <si>
+    <t>Size &amp; Style - LV</t>
+  </si>
+  <si>
+    <t>VTV</t>
+  </si>
+  <si>
+    <t>VUG</t>
+  </si>
+  <si>
+    <t>VOT</t>
+  </si>
+  <si>
+    <t>VOE</t>
+  </si>
+  <si>
+    <t>VBK</t>
+  </si>
+  <si>
+    <t>VBR</t>
+  </si>
+  <si>
+    <t>Size &amp; Style - MidG</t>
+  </si>
+  <si>
+    <t>Size &amp; Style - MidV</t>
+  </si>
+  <si>
+    <t>Size &amp; Style - SG</t>
+  </si>
+  <si>
+    <t>Size &amp; Style - SV</t>
   </si>
 </sst>
 </file>
@@ -328,7 +519,48 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -350,13 +582,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>8966</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>342021</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>170330</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -366,7 +598,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3852AA-BA78-D7E5-629C-31012C5EE9A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -387,23 +619,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -411,6 +630,246 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>372869</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="535781"/>
+          <a:ext cx="21367557" cy="4667901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>136352</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="542925"/>
+          <a:ext cx="21510452" cy="4706007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>460337</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="361950"/>
+          <a:ext cx="22482137" cy="5458587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>498262</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5972175"/>
+          <a:ext cx="21224662" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>69668</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="361950"/>
+          <a:ext cx="21443768" cy="5677692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -437,6 +896,19 @@
     <tableColumn id="8" xr3:uid="{A7AB0B70-EE5A-4944-8468-B07378E00A23}" name="Expense"/>
     <tableColumn id="9" xr3:uid="{DC132F4D-1491-44F5-B2EA-424D093ABC81}" name="Annual Return"/>
     <tableColumn id="10" xr3:uid="{CE8BEFF6-F12E-4098-8A03-116B43E28FEB}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3935D00F-E693-4C17-9E80-094617853705}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:D21" xr:uid="{3935D00F-E693-4C17-9E80-094617853705}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{93C653DE-264F-49A5-9CF7-4869E6F41274}" name="Benchmark" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{15540260-5676-4C9C-9FA5-CF03634D2C86}" name="winner" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{70D09C4C-D488-4632-9EA7-07B878A47BAD}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{301A5E00-8C0A-441A-B0E1-EA930A5C59B0}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -741,24 +1213,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE07E0F-9F1E-460D-AB27-EE65816585B3}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -822,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -854,7 +1326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -886,7 +1358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -918,7 +1390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -950,7 +1422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -982,7 +1454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1014,7 +1486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1046,7 +1518,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1078,7 +1550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1110,7 +1582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1174,7 +1646,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1206,7 +1678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +1774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1366,7 +1838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1398,7 +1870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1462,7 +1934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1494,7 +1966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1558,7 +2030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1590,7 +2062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1622,7 +2094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1654,7 +2126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1686,7 +2158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1718,7 +2190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1750,7 +2222,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1782,7 +2254,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1811,8 +2283,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J26" r:id="rId1" display="https://advtools.morningstar.com/SMLOGINMS/SMLoginMS.asp?url=https://awrd.morningstar.com/Auth/optsbuser.xml&amp;INSTID=OPTSB&amp;targeturl=https%3A%2F%2Fawrd.morningstar.com%2FSBT%2FTools%2FMR%2FDefault.aspx%3Ffullversion%3D1%26ticker%3DMKDVX" xr:uid="{E6D1DF4A-E68B-423A-986B-B9D57C658274}"/>
@@ -1838,13 +2310,13 @@
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1859,4 +2331,407 @@
     <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9261CA70-3111-4528-A9B0-7FA5B9F530F2}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2AC8FA-024A-40E2-A538-1808B32895EF}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD5A015-34B5-4820-8044-747B28748E9F}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A584A4-6BF8-4767-B335-2BC7751DF30E}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23383F5-3420-4686-BBC2-51926860A09C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScale="45" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>